--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655" tabRatio="268"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="268"/>
   </bookViews>
   <sheets>
     <sheet name="多语言" sheetId="1" r:id="rId1"/>
@@ -195,16 +195,9 @@
     <t>purse_tip_1</t>
   </si>
   <si>
-    <t xml:space="preserve">          Game Policies and Prize 
-            Withdrawal Guidelines
-1.Earning and Viewing Prizes
-Tokens earned by playing games may result in winning prizes,which will be added to your balance.
-To view your balance,navigate to the main page of the game.
-2.Prize Fulfillment and Account
-Requirements
-All eligible cash prizes will be awarded using the specified method within the game.
-If you do not have an account,you can create one for free on the official website.
-Prize fulfillment is subject to the Terms of Service and Privacy Policy.</t>
+    <t>Game Policy Statement
+1. Reward Earning and Balance Viewing After earning tokens in the game, you may win rewards,which will be deposited into your account balance. Youcan view your current balance by clicking on the game'shomepage.
+2.Reward Fulfillment and Account Requirements All eligible cash rewards will be transferred via themethod specified by the game. lf you do not have anaccount, you can register one for free on the officialwebsite.Reward fulfillment is subject to the transferparty's terms of use and privacy policy。</t>
   </si>
   <si>
     <t xml:space="preserve">          Políticas de Jogo e Prêmio
@@ -1612,15 +1605,9 @@
   </si>
   <si>
     <t>3. Withdrawal Process
-To withdraw funds, you must
-Enter your transfer account nformation.
-Follow the provided withdrawal instructions.
-Withdrawal requests are processed within 7 days.,
-4. withdrawal Limitsay
-The maximum amount for a single withdrawal is $500.
-All payments will be made in US Dollars (USD).
-5.Balance and Account Management
-If you delete the game from your device, your balance will be permanently deleted, and any unclaimed prizes without valid withdrawal requests will be forfeited.</t>
+To withdraw funds, you need to enter your transferaccount information and follow the provided withdrawalinstructions.Withdrawal requests will be processed
+within 7 days.
+4.Account Management and Deletion If you delete the game from your device, your balancewill be cleared, and any unclaimed rewards without avalid withdrawal request will be forfeited. Please ensureyou withdraw all rewards before deleting the game.</t>
   </si>
   <si>
     <t>3. Processo de retirada
@@ -2905,15 +2892,9 @@
     <t>purse_tip_3</t>
   </si>
   <si>
-    <t>6. incorrect Withdrawal Information
-Once funds are transferred to the specified account, we cannot redirect or recover funds due to incorrect account details or other errors.
-The player is solely responsible for ensuring the accuracy of the provided account information.
-7. Taxes and Fees
-You are solely responsible for any applicable taxes or transfer fees.
-The game reserves the right to withhold amounts from payments as required by government authorities.
-8. Inability to Fulfill Prizes
-If a prize cannot be fulfilled due to the winner's actions (e.g., failure to withdraw funds within the stipulateo timeframe, deletion of the winner's account), we reserve the right to forfeitthe prize.
-The decision regarding unfulfilled prizes is made at our sole discretion.</t>
+    <t>5. Accuracy of Withdrawal information Once funds are transferred to the specified account, wecannot redirect or recover funds due to incorrectaccount details or other errors,Players are responsiblefor ensuring the accuracy of the provided accountinformation.
+6.Taxes and Transfer Fees You are responsible for paying any taxes or transfer feesassociated with your withdrawal. Additionally, wereserve the right to withhold any necessary taxes oramounts from your payments as required bygovernment authorities in the jurisdictions where weoperate.
+7.Failure to Redeem Prizes If a winner fails to complete the withdrawal within thespecified time or is unable to claim the prize for anyotherreason (such as account deletion), we reserve theright to cancel the prize. The decision to award or forfeitthe prize is at our sole discretion.This statement is governed by the game's terms of useand privacy policy. Any actions that violate these termsmay result in forfeiture of rewards or accountsuspension.</t>
   </si>
   <si>
     <t>6. Informações de saque incorretas
@@ -5101,6 +5082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>오늘</t>
     </r>
     <r>
@@ -5124,6 +5111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>วันนี้</t>
     </r>
     <r>
@@ -5168,6 +5161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>광고가</t>
     </r>
     <r>
@@ -5368,6 +5367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>충분한</t>
     </r>
     <r>
@@ -5433,6 +5438,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>현재로서는</t>
     </r>
     <r>
@@ -5546,6 +5557,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ไม่มีรายการ</t>
     </r>
     <r>
@@ -6675,11 +6692,11 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6726,7 +6743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -6738,7 +6755,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -6982,31 +6999,31 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+    <row r="15" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:1">
+    <row r="16" ht="21" customHeight="1" spans="1:9">
       <c r="A16" s="7"/>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:1">

--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>键值</t>
   </si>
@@ -5592,6 +5592,156 @@
   </si>
   <si>
     <t>Derzeit gibt es noch keine gegenstände, die erkennbar sind</t>
+  </si>
+  <si>
+    <t>str_task_minutes</t>
+  </si>
+  <si>
+    <t>Play %s minutes</t>
+  </si>
+  <si>
+    <t>Jogue por %s minutos</t>
+  </si>
+  <si>
+    <t>%s分間プレイして</t>
+  </si>
+  <si>
+    <r>
+      <t>%s분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>플레이하세요</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>เล่น</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> %s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>นาที</t>
+    </r>
+  </si>
+  <si>
+    <t>Main %s minit</t>
+  </si>
+  <si>
+    <t>Играй %s минут</t>
+  </si>
+  <si>
+    <t>Spiele %s Minuten</t>
+  </si>
+  <si>
+    <t>str_prop_unusable</t>
+  </si>
+  <si>
+    <t>Prop unusable</t>
+  </si>
+  <si>
+    <t>Prop indutilizável</t>
+  </si>
+  <si>
+    <t>小道具が使用できません</t>
+  </si>
+  <si>
+    <r>
+      <t>소품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>불가</t>
+    </r>
+  </si>
+  <si>
+    <t>ของประกอบใช้ไม่ได้</t>
+  </si>
+  <si>
+    <t>Prop tidak boleh guna</t>
+  </si>
+  <si>
+    <t>Реквизит непригоден</t>
+  </si>
+  <si>
+    <t>Gegenstand unbrauchbar</t>
   </si>
 </sst>
 </file>
@@ -6692,11 +6842,11 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7000,16 +7150,62 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A14" s="7"/>

--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -6846,7 +6846,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
